--- a/Data/ROY Data/rookies_92_93.xlsx
+++ b/Data/ROY Data/rookies_92_93.xlsx
@@ -912,73 +912,70 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="W2">
-        <v>0.343</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
+        <v>0.278</v>
       </c>
       <c r="Y2">
-        <v>0.593</v>
+        <v>0.846</v>
       </c>
       <c r="Z2">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AA2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AB2">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AC2">
         <v>0.2</v>
@@ -1004,19 +1001,19 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>6729</v>
+        <v>2285</v>
       </c>
       <c r="I3">
-        <v>814</v>
+        <v>347</v>
       </c>
       <c r="J3">
-        <v>2019</v>
+        <v>802</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1025,55 +1022,55 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>330</v>
+        <v>112</v>
       </c>
       <c r="N3">
-        <v>481</v>
+        <v>172</v>
       </c>
       <c r="O3">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="P3">
-        <v>1584</v>
+        <v>512</v>
       </c>
       <c r="Q3">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="R3">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="S3">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="T3">
-        <v>416</v>
+        <v>140</v>
       </c>
       <c r="U3">
-        <v>824</v>
+        <v>237</v>
       </c>
       <c r="V3">
-        <v>1958</v>
+        <v>806</v>
       </c>
       <c r="W3">
-        <v>0.403</v>
+        <v>0.433</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.6860000000000001</v>
+        <v>0.651</v>
       </c>
       <c r="Z3">
-        <v>19.1</v>
+        <v>27.9</v>
       </c>
       <c r="AA3">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB3">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD3" t="s">
         <v>142</v>
@@ -1096,76 +1093,76 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>821</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>13880</v>
+        <v>552</v>
       </c>
       <c r="I4">
-        <v>1595</v>
+        <v>76</v>
       </c>
       <c r="J4">
-        <v>3672</v>
+        <v>206</v>
       </c>
       <c r="K4">
-        <v>657</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>1676</v>
+        <v>63</v>
       </c>
       <c r="M4">
-        <v>868</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>1023</v>
+        <v>49</v>
       </c>
       <c r="O4">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>1513</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>1784</v>
+        <v>68</v>
       </c>
       <c r="R4">
-        <v>722</v>
+        <v>35</v>
       </c>
       <c r="S4">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>808</v>
+        <v>42</v>
       </c>
       <c r="U4">
-        <v>1016</v>
+        <v>57</v>
       </c>
       <c r="V4">
-        <v>4715</v>
+        <v>206</v>
       </c>
       <c r="W4">
-        <v>0.434</v>
+        <v>0.369</v>
       </c>
       <c r="X4">
-        <v>0.392</v>
+        <v>0.333</v>
       </c>
       <c r="Y4">
-        <v>0.848</v>
+        <v>0.673</v>
       </c>
       <c r="Z4">
-        <v>16.9</v>
+        <v>11.7</v>
       </c>
       <c r="AA4">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB4">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC4">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" t="s">
         <v>142</v>
@@ -1188,76 +1185,76 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>1886</v>
+        <v>857</v>
       </c>
       <c r="I5">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="J5">
-        <v>536</v>
+        <v>260</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="L5">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
         <v>41</v>
       </c>
-      <c r="N5">
-        <v>56</v>
-      </c>
       <c r="O5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P5">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="Q5">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="R5">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="U5">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="V5">
-        <v>538</v>
+        <v>276</v>
       </c>
       <c r="W5">
-        <v>0.412</v>
+        <v>0.423</v>
       </c>
       <c r="X5">
-        <v>0.335</v>
+        <v>0.325</v>
       </c>
       <c r="Y5">
         <v>0.732</v>
       </c>
       <c r="Z5">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="AA5">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD5" t="s">
         <v>142</v>
@@ -1458,76 +1455,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="H8">
-        <v>2427</v>
+        <v>1578</v>
       </c>
       <c r="I8">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="J8">
-        <v>805</v>
+        <v>565</v>
       </c>
       <c r="K8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="N8">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="O8">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P8">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="Q8">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="R8">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="S8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="T8">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="U8">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="V8">
-        <v>873</v>
+        <v>590</v>
       </c>
       <c r="W8">
-        <v>0.409</v>
+        <v>0.402</v>
       </c>
       <c r="X8">
-        <v>0.299</v>
+        <v>0.167</v>
       </c>
       <c r="Y8">
-        <v>0.767</v>
+        <v>0.772</v>
       </c>
       <c r="Z8">
-        <v>15.9</v>
+        <v>21.3</v>
       </c>
       <c r="AA8">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="AB8">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AC8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD8" t="s">
         <v>142</v>
@@ -1642,76 +1639,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>827</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>26079</v>
+        <v>332</v>
       </c>
       <c r="I10">
-        <v>3238</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>7604</v>
+        <v>106</v>
       </c>
       <c r="K10">
-        <v>805</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>2272</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="N10">
-        <v>2460</v>
+        <v>66</v>
       </c>
       <c r="O10">
-        <v>797</v>
+        <v>24</v>
       </c>
       <c r="P10">
-        <v>3382</v>
+        <v>51</v>
       </c>
       <c r="Q10">
-        <v>2992</v>
+        <v>53</v>
       </c>
       <c r="R10">
-        <v>1555</v>
+        <v>22</v>
       </c>
       <c r="S10">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1721</v>
+        <v>50</v>
       </c>
       <c r="U10">
-        <v>2051</v>
+        <v>53</v>
       </c>
       <c r="V10">
-        <v>9301</v>
+        <v>142</v>
       </c>
       <c r="W10">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="X10">
-        <v>0.354</v>
+        <v>0.167</v>
       </c>
       <c r="Y10">
-        <v>0.821</v>
+        <v>0.758</v>
       </c>
       <c r="Z10">
-        <v>31.5</v>
+        <v>14.4</v>
       </c>
       <c r="AA10">
-        <v>11.2</v>
+        <v>6.2</v>
       </c>
       <c r="AB10">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="AC10">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD10" t="s">
         <v>142</v>
@@ -1734,76 +1731,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>781</v>
+        <v>645</v>
       </c>
       <c r="I11">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J11">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N11">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
         <v>50</v>
       </c>
-      <c r="O11">
-        <v>15</v>
-      </c>
-      <c r="P11">
-        <v>59</v>
-      </c>
       <c r="Q11">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="R11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="U11">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="V11">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="W11">
-        <v>0.402</v>
+        <v>0.392</v>
       </c>
       <c r="X11">
-        <v>0.216</v>
+        <v>0.233</v>
       </c>
       <c r="Y11">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="Z11">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="AA11">
+        <v>2.4</v>
+      </c>
+      <c r="AB11">
+        <v>0.8</v>
+      </c>
+      <c r="AC11">
         <v>2.3</v>
-      </c>
-      <c r="AB11">
-        <v>0.7</v>
-      </c>
-      <c r="AC11">
-        <v>2</v>
       </c>
       <c r="AD11" t="s">
         <v>142</v>
@@ -1826,73 +1823,70 @@
         <v>23</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>104</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>96</v>
-      </c>
-      <c r="H12">
-        <v>749</v>
-      </c>
-      <c r="I12">
-        <v>106</v>
-      </c>
-      <c r="J12">
-        <v>245</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
+      <c r="P12">
+        <v>19</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>79</v>
-      </c>
-      <c r="O12">
-        <v>65</v>
-      </c>
-      <c r="P12">
-        <v>140</v>
-      </c>
-      <c r="Q12">
-        <v>27</v>
-      </c>
       <c r="R12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="V12">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="W12">
-        <v>0.433</v>
-      </c>
-      <c r="X12">
-        <v>0.667</v>
+        <v>0.406</v>
       </c>
       <c r="Y12">
-        <v>0.633</v>
+        <v>0.778</v>
       </c>
       <c r="Z12">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA12">
         <v>2.8</v>
       </c>
       <c r="AB12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC12">
         <v>0.3</v>
@@ -1918,76 +1912,76 @@
         <v>23</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>243</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13">
+        <v>55</v>
+      </c>
+      <c r="R13">
         <v>11</v>
       </c>
-      <c r="G13">
-        <v>477</v>
-      </c>
-      <c r="H13">
-        <v>5795</v>
-      </c>
-      <c r="I13">
-        <v>625</v>
-      </c>
-      <c r="J13">
-        <v>1449</v>
-      </c>
-      <c r="K13">
-        <v>144</v>
-      </c>
-      <c r="L13">
-        <v>375</v>
-      </c>
-      <c r="M13">
-        <v>509</v>
-      </c>
-      <c r="N13">
-        <v>608</v>
-      </c>
-      <c r="O13">
-        <v>136</v>
-      </c>
-      <c r="P13">
-        <v>502</v>
-      </c>
-      <c r="Q13">
-        <v>999</v>
-      </c>
-      <c r="R13">
-        <v>181</v>
-      </c>
       <c r="S13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>428</v>
+        <v>30</v>
       </c>
       <c r="U13">
-        <v>597</v>
+        <v>29</v>
       </c>
       <c r="V13">
-        <v>1903</v>
+        <v>102</v>
       </c>
       <c r="W13">
-        <v>0.431</v>
+        <v>0.514</v>
       </c>
       <c r="X13">
-        <v>0.384</v>
+        <v>0.143</v>
       </c>
       <c r="Y13">
-        <v>0.837</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z13">
-        <v>12.1</v>
+        <v>6.1</v>
       </c>
       <c r="AA13">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="AB13">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" t="s">
         <v>142</v>
@@ -2099,76 +2093,76 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>3549</v>
+        <v>1573</v>
       </c>
       <c r="I15">
-        <v>553</v>
+        <v>285</v>
       </c>
       <c r="J15">
-        <v>1373</v>
+        <v>644</v>
       </c>
       <c r="K15">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="L15">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="M15">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="N15">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="O15">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="P15">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="Q15">
-        <v>312</v>
+        <v>148</v>
       </c>
       <c r="R15">
+        <v>38</v>
+      </c>
+      <c r="S15">
+        <v>30</v>
+      </c>
+      <c r="T15">
         <v>102</v>
       </c>
-      <c r="S15">
-        <v>61</v>
-      </c>
-      <c r="T15">
-        <v>211</v>
-      </c>
       <c r="U15">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="V15">
-        <v>1411</v>
+        <v>701</v>
       </c>
       <c r="W15">
-        <v>0.403</v>
+        <v>0.443</v>
       </c>
       <c r="X15">
-        <v>0.316</v>
+        <v>0.333</v>
       </c>
       <c r="Y15">
-        <v>0.743</v>
+        <v>0.727</v>
       </c>
       <c r="Z15">
-        <v>17.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA15">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="AB15">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC15">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="s">
         <v>142</v>
@@ -2191,73 +2185,73 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>685</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>15143</v>
+        <v>815</v>
       </c>
       <c r="I16">
-        <v>2108</v>
+        <v>110</v>
       </c>
       <c r="J16">
-        <v>4600</v>
+        <v>251</v>
       </c>
       <c r="K16">
-        <v>728</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>1651</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>639</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>763</v>
+        <v>54</v>
       </c>
       <c r="O16">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="P16">
-        <v>1045</v>
+        <v>56</v>
       </c>
       <c r="Q16">
-        <v>1172</v>
+        <v>83</v>
       </c>
       <c r="R16">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="S16">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="U16">
-        <v>1011</v>
+        <v>71</v>
       </c>
       <c r="V16">
-        <v>5583</v>
+        <v>269</v>
       </c>
       <c r="W16">
-        <v>0.458</v>
+        <v>0.438</v>
       </c>
       <c r="X16">
-        <v>0.441</v>
+        <v>0.316</v>
       </c>
       <c r="Y16">
-        <v>0.837</v>
+        <v>0.796</v>
       </c>
       <c r="Z16">
-        <v>22.1</v>
+        <v>16.3</v>
       </c>
       <c r="AA16">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AB16">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC16">
         <v>1.7</v>
@@ -2283,76 +2277,76 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>483</v>
+        <v>71</v>
       </c>
       <c r="H17">
-        <v>12214</v>
+        <v>1931</v>
       </c>
       <c r="I17">
-        <v>2036</v>
+        <v>358</v>
       </c>
       <c r="J17">
-        <v>5017</v>
+        <v>828</v>
       </c>
       <c r="K17">
-        <v>568</v>
+        <v>54</v>
       </c>
       <c r="L17">
-        <v>1646</v>
+        <v>184</v>
       </c>
       <c r="M17">
-        <v>1277</v>
+        <v>213</v>
       </c>
       <c r="N17">
-        <v>1727</v>
+        <v>297</v>
       </c>
       <c r="O17">
-        <v>578</v>
+        <v>144</v>
       </c>
       <c r="P17">
-        <v>1649</v>
+        <v>291</v>
       </c>
       <c r="Q17">
-        <v>713</v>
+        <v>117</v>
       </c>
       <c r="R17">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="S17">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="T17">
-        <v>717</v>
+        <v>118</v>
       </c>
       <c r="U17">
-        <v>1348</v>
+        <v>222</v>
       </c>
       <c r="V17">
-        <v>5917</v>
+        <v>983</v>
       </c>
       <c r="W17">
-        <v>0.406</v>
+        <v>0.432</v>
       </c>
       <c r="X17">
-        <v>0.345</v>
+        <v>0.293</v>
       </c>
       <c r="Y17">
-        <v>0.739</v>
+        <v>0.717</v>
       </c>
       <c r="Z17">
-        <v>25.3</v>
+        <v>27.2</v>
       </c>
       <c r="AA17">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="AB17">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AC17">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD17" t="s">
         <v>142</v>
@@ -2375,76 +2369,76 @@
         <v>23</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <v>1320</v>
+      </c>
+      <c r="I18">
+        <v>302</v>
+      </c>
+      <c r="J18">
+        <v>576</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>102</v>
-      </c>
-      <c r="H18">
-        <v>2226</v>
-      </c>
-      <c r="I18">
-        <v>434</v>
-      </c>
-      <c r="J18">
-        <v>852</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
       <c r="M18">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="N18">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="O18">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="P18">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="Q18">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="R18">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="S18">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="T18">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="U18">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="V18">
-        <v>1080</v>
+        <v>757</v>
       </c>
       <c r="W18">
-        <v>0.509</v>
+        <v>0.524</v>
       </c>
       <c r="X18">
-        <v>0.231</v>
+        <v>0.333</v>
       </c>
       <c r="Y18">
-        <v>0.694</v>
+        <v>0.707</v>
       </c>
       <c r="Z18">
-        <v>21.8</v>
+        <v>27.5</v>
       </c>
       <c r="AA18">
-        <v>10.6</v>
+        <v>15.8</v>
       </c>
       <c r="AB18">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AC18">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="s">
         <v>142</v>
@@ -2467,76 +2461,73 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>930</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>26</v>
-      </c>
-      <c r="M19">
-        <v>72</v>
-      </c>
-      <c r="N19">
-        <v>108</v>
-      </c>
-      <c r="O19">
-        <v>42</v>
-      </c>
       <c r="P19">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="W19">
-        <v>0.469</v>
-      </c>
-      <c r="X19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="Y19">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>14.5</v>
+        <v>15.6</v>
       </c>
       <c r="AA19">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AB19">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AC19">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD19" t="s">
         <v>142</v>
@@ -2559,76 +2550,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="H20">
-        <v>17616</v>
+        <v>2749</v>
       </c>
       <c r="I20">
-        <v>2895</v>
+        <v>483</v>
       </c>
       <c r="J20">
-        <v>6409</v>
+        <v>958</v>
       </c>
       <c r="K20">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>797</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>1379</v>
+        <v>237</v>
       </c>
       <c r="N20">
-        <v>1888</v>
+        <v>317</v>
       </c>
       <c r="O20">
-        <v>1320</v>
+        <v>274</v>
       </c>
       <c r="P20">
-        <v>4032</v>
+        <v>744</v>
       </c>
       <c r="Q20">
-        <v>981</v>
+        <v>151</v>
       </c>
       <c r="R20">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="S20">
-        <v>477</v>
+        <v>111</v>
       </c>
       <c r="T20">
-        <v>1001</v>
+        <v>153</v>
       </c>
       <c r="U20">
-        <v>1934</v>
+        <v>293</v>
       </c>
       <c r="V20">
-        <v>7410</v>
+        <v>1205</v>
       </c>
       <c r="W20">
-        <v>0.452</v>
+        <v>0.504</v>
       </c>
       <c r="X20">
-        <v>0.302</v>
+        <v>0.154</v>
       </c>
       <c r="Y20">
-        <v>0.73</v>
+        <v>0.748</v>
       </c>
       <c r="Z20">
-        <v>28.2</v>
+        <v>33.5</v>
       </c>
       <c r="AA20">
-        <v>11.9</v>
+        <v>14.7</v>
       </c>
       <c r="AB20">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="AC20">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD20" t="s">
         <v>142</v>
@@ -2651,76 +2642,76 @@
         <v>22</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>31</v>
+      </c>
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>577</v>
-      </c>
-      <c r="I21">
-        <v>74</v>
-      </c>
       <c r="J21">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="W21">
-        <v>0.416</v>
+        <v>0.3</v>
       </c>
       <c r="X21">
-        <v>0.344</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA21">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD21" t="s">
         <v>142</v>
@@ -2743,76 +2734,76 @@
         <v>23</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>552</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>12221</v>
+        <v>554</v>
       </c>
       <c r="I22">
-        <v>2039</v>
+        <v>76</v>
       </c>
       <c r="J22">
-        <v>4083</v>
+        <v>145</v>
       </c>
       <c r="K22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>965</v>
+        <v>62</v>
       </c>
       <c r="N22">
-        <v>1325</v>
+        <v>92</v>
       </c>
       <c r="O22">
-        <v>1152</v>
+        <v>46</v>
       </c>
       <c r="P22">
-        <v>3158</v>
+        <v>120</v>
       </c>
       <c r="Q22">
-        <v>388</v>
+        <v>14</v>
       </c>
       <c r="R22">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="S22">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="T22">
-        <v>744</v>
+        <v>36</v>
       </c>
       <c r="U22">
-        <v>1629</v>
+        <v>123</v>
       </c>
       <c r="V22">
-        <v>5059</v>
+        <v>214</v>
       </c>
       <c r="W22">
-        <v>0.499</v>
+        <v>0.524</v>
       </c>
       <c r="X22">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.728</v>
+        <v>0.674</v>
       </c>
       <c r="Z22">
-        <v>22.1</v>
+        <v>11.5</v>
       </c>
       <c r="AA22">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="AB22">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC22">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD22" t="s">
         <v>142</v>
@@ -2835,76 +2826,76 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H23">
-        <v>1189</v>
+        <v>626</v>
       </c>
       <c r="I23">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="J23">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="N23">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="O23">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P23">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q23">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="R23">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T23">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="U23">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="V23">
-        <v>423</v>
+        <v>235</v>
       </c>
       <c r="W23">
-        <v>0.42</v>
+        <v>0.439</v>
       </c>
       <c r="X23">
-        <v>0.077</v>
+        <v>0.1</v>
       </c>
       <c r="Y23">
-        <v>0.665</v>
+        <v>0.625</v>
       </c>
       <c r="Z23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA23">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC23">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AD23" t="s">
         <v>142</v>
@@ -2927,76 +2918,76 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>763</v>
+        <v>81</v>
       </c>
       <c r="H24">
-        <v>23556</v>
+        <v>2795</v>
       </c>
       <c r="I24">
-        <v>3871</v>
+        <v>484</v>
       </c>
       <c r="J24">
-        <v>8584</v>
+        <v>1135</v>
       </c>
       <c r="K24">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="L24">
-        <v>732</v>
+        <v>135</v>
       </c>
       <c r="M24">
-        <v>1945</v>
+        <v>181</v>
       </c>
       <c r="N24">
-        <v>2570</v>
+        <v>281</v>
       </c>
       <c r="O24">
-        <v>1595</v>
+        <v>219</v>
       </c>
       <c r="P24">
-        <v>5589</v>
+        <v>781</v>
       </c>
       <c r="Q24">
-        <v>2140</v>
+        <v>306</v>
       </c>
       <c r="R24">
-        <v>1079</v>
+        <v>134</v>
       </c>
       <c r="S24">
-        <v>492</v>
+        <v>35</v>
       </c>
       <c r="T24">
-        <v>1735</v>
+        <v>230</v>
       </c>
       <c r="U24">
-        <v>1884</v>
+        <v>195</v>
       </c>
       <c r="V24">
-        <v>9895</v>
+        <v>1187</v>
       </c>
       <c r="W24">
-        <v>0.451</v>
+        <v>0.426</v>
       </c>
       <c r="X24">
-        <v>0.284</v>
+        <v>0.281</v>
       </c>
       <c r="Y24">
-        <v>0.757</v>
+        <v>0.644</v>
       </c>
       <c r="Z24">
-        <v>30.9</v>
+        <v>34.5</v>
       </c>
       <c r="AA24">
-        <v>13</v>
+        <v>14.7</v>
       </c>
       <c r="AB24">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="AC24">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AD24" t="s">
         <v>142</v>
@@ -3019,73 +3010,73 @@
         <v>23</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>215</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>25</v>
+      </c>
+      <c r="O25">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <v>64</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>48</v>
+      </c>
+      <c r="V25">
+        <v>51</v>
+      </c>
+      <c r="W25">
+        <v>0.345</v>
+      </c>
+      <c r="Y25">
+        <v>0.52</v>
+      </c>
+      <c r="Z25">
+        <v>6.7</v>
+      </c>
+      <c r="AA25">
+        <v>1.6</v>
+      </c>
+      <c r="AB25">
         <v>2</v>
       </c>
-      <c r="G25">
-        <v>64</v>
-      </c>
-      <c r="H25">
-        <v>346</v>
-      </c>
-      <c r="I25">
-        <v>35</v>
-      </c>
-      <c r="J25">
-        <v>87</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>46</v>
-      </c>
-      <c r="O25">
-        <v>41</v>
-      </c>
-      <c r="P25">
-        <v>97</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
-      </c>
-      <c r="R25">
-        <v>13</v>
-      </c>
-      <c r="S25">
-        <v>15</v>
-      </c>
-      <c r="T25">
-        <v>26</v>
-      </c>
-      <c r="U25">
-        <v>71</v>
-      </c>
-      <c r="V25">
-        <v>98</v>
-      </c>
-      <c r="W25">
-        <v>0.402</v>
-      </c>
-      <c r="Y25">
-        <v>0.609</v>
-      </c>
-      <c r="Z25">
-        <v>5.4</v>
-      </c>
-      <c r="AA25">
-        <v>1.5</v>
-      </c>
-      <c r="AB25">
-        <v>1.5</v>
-      </c>
       <c r="AC25">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="s">
         <v>142</v>
@@ -3108,76 +3099,76 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1107</v>
+        <v>79</v>
       </c>
       <c r="H26">
-        <v>27069</v>
+        <v>2330</v>
       </c>
       <c r="I26">
-        <v>2820</v>
+        <v>323</v>
       </c>
       <c r="J26">
-        <v>6643</v>
+        <v>682</v>
       </c>
       <c r="K26">
-        <v>795</v>
+        <v>12</v>
       </c>
       <c r="L26">
-        <v>2329</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>1280</v>
+        <v>143</v>
       </c>
       <c r="N26">
-        <v>1762</v>
+        <v>200</v>
       </c>
       <c r="O26">
-        <v>1644</v>
+        <v>113</v>
       </c>
       <c r="P26">
-        <v>5269</v>
+        <v>392</v>
       </c>
       <c r="Q26">
-        <v>2343</v>
+        <v>191</v>
       </c>
       <c r="R26">
-        <v>1158</v>
+        <v>80</v>
       </c>
       <c r="S26">
-        <v>1035</v>
+        <v>83</v>
       </c>
       <c r="T26">
-        <v>1378</v>
+        <v>156</v>
       </c>
       <c r="U26">
-        <v>2680</v>
+        <v>210</v>
       </c>
       <c r="V26">
-        <v>7715</v>
+        <v>801</v>
       </c>
       <c r="W26">
-        <v>0.425</v>
+        <v>0.474</v>
       </c>
       <c r="X26">
-        <v>0.341</v>
+        <v>0.255</v>
       </c>
       <c r="Y26">
-        <v>0.726</v>
+        <v>0.715</v>
       </c>
       <c r="Z26">
-        <v>24.5</v>
+        <v>29.5</v>
       </c>
       <c r="AA26">
-        <v>7</v>
+        <v>10.1</v>
       </c>
       <c r="AB26">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AD26" t="s">
         <v>142</v>
@@ -3200,76 +3191,76 @@
         <v>23</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>1274</v>
+      </c>
+      <c r="I27">
+        <v>145</v>
+      </c>
+      <c r="J27">
+        <v>325</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>129</v>
+      </c>
+      <c r="N27">
+        <v>194</v>
+      </c>
+      <c r="O27">
+        <v>119</v>
+      </c>
+      <c r="P27">
+        <v>315</v>
+      </c>
+      <c r="Q27">
+        <v>69</v>
+      </c>
+      <c r="R27">
+        <v>44</v>
+      </c>
+      <c r="S27">
+        <v>43</v>
+      </c>
+      <c r="T27">
+        <v>87</v>
+      </c>
+      <c r="U27">
+        <v>253</v>
+      </c>
+      <c r="V27">
+        <v>421</v>
+      </c>
+      <c r="W27">
+        <v>0.446</v>
+      </c>
+      <c r="X27">
+        <v>0.286</v>
+      </c>
+      <c r="Y27">
+        <v>0.665</v>
+      </c>
+      <c r="Z27">
+        <v>16.1</v>
+      </c>
+      <c r="AA27">
+        <v>5.3</v>
+      </c>
+      <c r="AB27">
         <v>4</v>
       </c>
-      <c r="G27">
-        <v>214</v>
-      </c>
-      <c r="H27">
-        <v>2674</v>
-      </c>
-      <c r="I27">
-        <v>307</v>
-      </c>
-      <c r="J27">
-        <v>673</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>39</v>
-      </c>
-      <c r="M27">
-        <v>211</v>
-      </c>
-      <c r="N27">
-        <v>312</v>
-      </c>
-      <c r="O27">
-        <v>237</v>
-      </c>
-      <c r="P27">
-        <v>648</v>
-      </c>
-      <c r="Q27">
-        <v>114</v>
-      </c>
-      <c r="R27">
-        <v>103</v>
-      </c>
-      <c r="S27">
-        <v>86</v>
-      </c>
-      <c r="T27">
-        <v>173</v>
-      </c>
-      <c r="U27">
-        <v>543</v>
-      </c>
-      <c r="V27">
-        <v>835</v>
-      </c>
-      <c r="W27">
-        <v>0.456</v>
-      </c>
-      <c r="X27">
-        <v>0.256</v>
-      </c>
-      <c r="Y27">
-        <v>0.676</v>
-      </c>
-      <c r="Z27">
-        <v>12.5</v>
-      </c>
-      <c r="AA27">
-        <v>3.9</v>
-      </c>
-      <c r="AB27">
-        <v>3</v>
-      </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="AD27" t="s">
         <v>142</v>
@@ -3292,19 +3283,19 @@
         <v>22</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H28">
-        <v>784</v>
+        <v>260</v>
       </c>
       <c r="I28">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="J28">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3313,49 +3304,49 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="N28">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="O28">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="P28">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="S28">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="T28">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="U28">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="V28">
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="W28">
-        <v>0.481</v>
+        <v>0.376</v>
       </c>
       <c r="Y28">
-        <v>0.631</v>
+        <v>0.642</v>
       </c>
       <c r="Z28">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AA28">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AB28">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AC28">
         <v>0.2</v>
@@ -3381,76 +3372,76 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>885</v>
+        <v>28</v>
       </c>
       <c r="H29">
-        <v>29067</v>
+        <v>938</v>
       </c>
       <c r="I29">
-        <v>4811</v>
+        <v>184</v>
       </c>
       <c r="J29">
-        <v>11247</v>
+        <v>466</v>
       </c>
       <c r="K29">
-        <v>881</v>
+        <v>21</v>
       </c>
       <c r="L29">
-        <v>2413</v>
+        <v>73</v>
       </c>
       <c r="M29">
-        <v>2187</v>
+        <v>68</v>
       </c>
       <c r="N29">
-        <v>2651</v>
+        <v>92</v>
       </c>
       <c r="O29">
-        <v>1190</v>
+        <v>42</v>
       </c>
       <c r="P29">
-        <v>4152</v>
+        <v>122</v>
       </c>
       <c r="Q29">
-        <v>2851</v>
+        <v>131</v>
       </c>
       <c r="R29">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="S29">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="T29">
-        <v>2179</v>
+        <v>115</v>
       </c>
       <c r="U29">
-        <v>1972</v>
+        <v>80</v>
       </c>
       <c r="V29">
-        <v>12690</v>
+        <v>457</v>
       </c>
       <c r="W29">
-        <v>0.428</v>
+        <v>0.395</v>
       </c>
       <c r="X29">
-        <v>0.365</v>
+        <v>0.288</v>
       </c>
       <c r="Y29">
-        <v>0.825</v>
+        <v>0.739</v>
       </c>
       <c r="Z29">
-        <v>32.8</v>
+        <v>33.5</v>
       </c>
       <c r="AA29">
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="AB29">
+        <v>4.4</v>
+      </c>
+      <c r="AC29">
         <v>4.7</v>
-      </c>
-      <c r="AC29">
-        <v>3.2</v>
       </c>
       <c r="AD29" t="s">
         <v>142</v>
@@ -3473,76 +3464,76 @@
         <v>24</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>2955</v>
+        <v>136</v>
       </c>
       <c r="I30">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="J30">
-        <v>809</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>364</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="N30">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="O30">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="P30">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="Q30">
-        <v>614</v>
+        <v>23</v>
       </c>
       <c r="R30">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="U30">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="V30">
-        <v>1090</v>
+        <v>69</v>
       </c>
       <c r="W30">
-        <v>0.436</v>
+        <v>0.595</v>
       </c>
       <c r="X30">
-        <v>0.374</v>
+        <v>0.556</v>
       </c>
       <c r="Y30">
-        <v>0.852</v>
+        <v>0.778</v>
       </c>
       <c r="Z30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA30">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AB30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC30">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD30" t="s">
         <v>142</v>
@@ -3565,70 +3556,70 @@
         <v>22</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H31">
-        <v>475</v>
+        <v>356</v>
       </c>
       <c r="I31">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J31">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="N31">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O31">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P31">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="U31">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="V31">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="W31">
-        <v>0.365</v>
+        <v>0.383</v>
       </c>
       <c r="X31">
-        <v>0.2</v>
+        <v>0.214</v>
       </c>
       <c r="Y31">
-        <v>0.663</v>
+        <v>0.678</v>
       </c>
       <c r="Z31">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA31">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB31">
         <v>1.1</v>
@@ -3746,76 +3737,76 @@
         <v>22</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>617</v>
+        <v>82</v>
       </c>
       <c r="H33">
-        <v>10334</v>
+        <v>1549</v>
       </c>
       <c r="I33">
-        <v>1120</v>
+        <v>188</v>
       </c>
       <c r="J33">
-        <v>2230</v>
+        <v>376</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>866</v>
+        <v>166</v>
       </c>
       <c r="N33">
-        <v>1213</v>
+        <v>237</v>
       </c>
       <c r="O33">
-        <v>999</v>
+        <v>171</v>
       </c>
       <c r="P33">
-        <v>2556</v>
+        <v>432</v>
       </c>
       <c r="Q33">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="R33">
-        <v>307</v>
+        <v>57</v>
       </c>
       <c r="S33">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="T33">
-        <v>545</v>
+        <v>100</v>
       </c>
       <c r="U33">
-        <v>1114</v>
+        <v>195</v>
       </c>
       <c r="V33">
-        <v>3107</v>
+        <v>542</v>
       </c>
       <c r="W33">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="X33">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>0.714</v>
+        <v>0.7</v>
       </c>
       <c r="Z33">
-        <v>16.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA33">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="AB33">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="s">
         <v>142</v>
@@ -3838,76 +3829,76 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>868</v>
+        <v>81</v>
       </c>
       <c r="H34">
-        <v>25760</v>
+        <v>2823</v>
       </c>
       <c r="I34">
-        <v>4036</v>
+        <v>503</v>
       </c>
       <c r="J34">
-        <v>8405</v>
+        <v>1061</v>
       </c>
       <c r="K34">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="L34">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>2957</v>
+        <v>462</v>
       </c>
       <c r="N34">
-        <v>3604</v>
+        <v>553</v>
       </c>
       <c r="O34">
-        <v>1621</v>
+        <v>171</v>
       </c>
       <c r="P34">
-        <v>5806</v>
+        <v>708</v>
       </c>
       <c r="Q34">
-        <v>2224</v>
+        <v>223</v>
       </c>
       <c r="R34">
-        <v>917</v>
+        <v>105</v>
       </c>
       <c r="S34">
-        <v>675</v>
+        <v>83</v>
       </c>
       <c r="T34">
-        <v>1932</v>
+        <v>275</v>
       </c>
       <c r="U34">
-        <v>2768</v>
+        <v>290</v>
       </c>
       <c r="V34">
-        <v>11121</v>
+        <v>1472</v>
       </c>
       <c r="W34">
-        <v>0.48</v>
+        <v>0.474</v>
       </c>
       <c r="X34">
-        <v>0.261</v>
+        <v>0.1</v>
       </c>
       <c r="Y34">
-        <v>0.82</v>
+        <v>0.835</v>
       </c>
       <c r="Z34">
-        <v>29.7</v>
+        <v>34.9</v>
       </c>
       <c r="AA34">
-        <v>12.8</v>
+        <v>18.2</v>
       </c>
       <c r="AB34">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC34">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD34" t="s">
         <v>142</v>
@@ -3930,76 +3921,76 @@
         <v>22</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>5028</v>
+        <v>267</v>
       </c>
       <c r="I35">
-        <v>713</v>
+        <v>47</v>
       </c>
       <c r="J35">
-        <v>1781</v>
+        <v>118</v>
       </c>
       <c r="K35">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>879</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="N35">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="O35">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="P35">
-        <v>533</v>
+        <v>48</v>
       </c>
       <c r="Q35">
-        <v>336</v>
+        <v>15</v>
       </c>
       <c r="R35">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="S35">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="U35">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="V35">
-        <v>2011</v>
+        <v>142</v>
       </c>
       <c r="W35">
+        <v>0.398</v>
+      </c>
+      <c r="X35">
+        <v>0.136</v>
+      </c>
+      <c r="Y35">
+        <v>0.776</v>
+      </c>
+      <c r="Z35">
+        <v>6.7</v>
+      </c>
+      <c r="AA35">
+        <v>3.6</v>
+      </c>
+      <c r="AB35">
+        <v>1.2</v>
+      </c>
+      <c r="AC35">
         <v>0.4</v>
-      </c>
-      <c r="X35">
-        <v>0.374</v>
-      </c>
-      <c r="Y35">
-        <v>0.831</v>
-      </c>
-      <c r="Z35">
-        <v>19.4</v>
-      </c>
-      <c r="AA35">
-        <v>7.8</v>
-      </c>
-      <c r="AB35">
-        <v>2.1</v>
-      </c>
-      <c r="AC35">
-        <v>1.3</v>
       </c>
       <c r="AD35" t="s">
         <v>142</v>
@@ -4022,76 +4013,76 @@
         <v>23</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>6679</v>
+        <v>674</v>
       </c>
       <c r="I36">
-        <v>1320</v>
+        <v>157</v>
       </c>
       <c r="J36">
-        <v>2902</v>
+        <v>361</v>
       </c>
       <c r="K36">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>794</v>
+        <v>90</v>
       </c>
       <c r="N36">
-        <v>1038</v>
+        <v>111</v>
       </c>
       <c r="O36">
-        <v>356</v>
+        <v>33</v>
       </c>
       <c r="P36">
-        <v>1210</v>
+        <v>122</v>
       </c>
       <c r="Q36">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="R36">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="S36">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="U36">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="V36">
-        <v>3490</v>
+        <v>407</v>
       </c>
       <c r="W36">
-        <v>0.455</v>
+        <v>0.435</v>
       </c>
       <c r="X36">
-        <v>0.284</v>
+        <v>0.5</v>
       </c>
       <c r="Y36">
-        <v>0.765</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z36">
-        <v>20.9</v>
+        <v>10.9</v>
       </c>
       <c r="AA36">
-        <v>10.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB36">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD36" t="s">
         <v>142</v>
@@ -4114,76 +4105,76 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>1146</v>
+        <v>520</v>
       </c>
       <c r="I37">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="J37">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N37">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="O37">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="P37">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R37">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="S37">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="T37">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U37">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="V37">
-        <v>479</v>
+        <v>231</v>
       </c>
       <c r="W37">
-        <v>0.542</v>
+        <v>0.55</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.6850000000000001</v>
+        <v>0.643</v>
       </c>
       <c r="Z37">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="AA37">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB37">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AC37">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD37" t="s">
         <v>142</v>
@@ -4206,76 +4197,76 @@
         <v>22</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>82</v>
+      </c>
+      <c r="H38">
+        <v>1503</v>
+      </c>
+      <c r="I38">
+        <v>171</v>
+      </c>
+      <c r="J38">
+        <v>375</v>
+      </c>
+      <c r="K38">
+        <v>43</v>
+      </c>
+      <c r="L38">
+        <v>110</v>
+      </c>
+      <c r="M38">
+        <v>39</v>
+      </c>
+      <c r="N38">
+        <v>68</v>
+      </c>
+      <c r="O38">
+        <v>26</v>
+      </c>
+      <c r="P38">
+        <v>118</v>
+      </c>
+      <c r="Q38">
+        <v>273</v>
+      </c>
+      <c r="R38">
+        <v>59</v>
+      </c>
+      <c r="S38">
         <v>7</v>
       </c>
-      <c r="G38">
-        <v>496</v>
-      </c>
-      <c r="H38">
-        <v>10337</v>
-      </c>
-      <c r="I38">
-        <v>950</v>
-      </c>
-      <c r="J38">
-        <v>2287</v>
-      </c>
-      <c r="K38">
-        <v>379</v>
-      </c>
-      <c r="L38">
-        <v>1006</v>
-      </c>
-      <c r="M38">
-        <v>267</v>
-      </c>
-      <c r="N38">
-        <v>405</v>
-      </c>
-      <c r="O38">
-        <v>142</v>
-      </c>
-      <c r="P38">
-        <v>642</v>
-      </c>
-      <c r="Q38">
-        <v>1767</v>
-      </c>
-      <c r="R38">
-        <v>352</v>
-      </c>
-      <c r="S38">
-        <v>43</v>
-      </c>
       <c r="T38">
-        <v>591</v>
+        <v>85</v>
       </c>
       <c r="U38">
-        <v>865</v>
+        <v>148</v>
       </c>
       <c r="V38">
-        <v>2546</v>
+        <v>424</v>
       </c>
       <c r="W38">
-        <v>0.415</v>
+        <v>0.456</v>
       </c>
       <c r="X38">
-        <v>0.377</v>
+        <v>0.391</v>
       </c>
       <c r="Y38">
-        <v>0.659</v>
+        <v>0.574</v>
       </c>
       <c r="Z38">
-        <v>20.8</v>
+        <v>18.3</v>
       </c>
       <c r="AA38">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB38">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AC38">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD38" t="s">
         <v>142</v>
@@ -4298,76 +4289,76 @@
         <v>22</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>493</v>
+        <v>56</v>
       </c>
       <c r="H39">
-        <v>11338</v>
+        <v>1069</v>
       </c>
       <c r="I39">
-        <v>1536</v>
+        <v>121</v>
       </c>
       <c r="J39">
-        <v>2874</v>
+        <v>255</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>548</v>
+        <v>71</v>
       </c>
       <c r="N39">
-        <v>858</v>
+        <v>100</v>
       </c>
       <c r="O39">
-        <v>940</v>
+        <v>70</v>
       </c>
       <c r="P39">
-        <v>2893</v>
+        <v>275</v>
       </c>
       <c r="Q39">
-        <v>1061</v>
+        <v>118</v>
       </c>
       <c r="R39">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="S39">
-        <v>758</v>
+        <v>100</v>
       </c>
       <c r="T39">
-        <v>921</v>
+        <v>108</v>
       </c>
       <c r="U39">
-        <v>1460</v>
+        <v>145</v>
       </c>
       <c r="V39">
-        <v>3625</v>
+        <v>313</v>
       </c>
       <c r="W39">
-        <v>0.534</v>
+        <v>0.475</v>
       </c>
       <c r="X39">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.639</v>
+        <v>0.71</v>
       </c>
       <c r="Z39">
-        <v>23</v>
+        <v>19.1</v>
       </c>
       <c r="AA39">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB39">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AC39">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD39" t="s">
         <v>142</v>
@@ -4390,76 +4381,76 @@
         <v>21</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="H40">
-        <v>3748</v>
+        <v>1383</v>
       </c>
       <c r="I40">
-        <v>692</v>
+        <v>292</v>
       </c>
       <c r="J40">
-        <v>1504</v>
+        <v>615</v>
       </c>
       <c r="K40">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>163</v>
+      </c>
+      <c r="N40">
+        <v>214</v>
+      </c>
+      <c r="O40">
         <v>74</v>
       </c>
-      <c r="M40">
-        <v>394</v>
-      </c>
-      <c r="N40">
-        <v>502</v>
-      </c>
-      <c r="O40">
-        <v>191</v>
-      </c>
       <c r="P40">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="Q40">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="R40">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="S40">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="U40">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="V40">
-        <v>1801</v>
+        <v>750</v>
       </c>
       <c r="W40">
-        <v>0.46</v>
+        <v>0.475</v>
       </c>
       <c r="X40">
-        <v>0.311</v>
+        <v>0.333</v>
       </c>
       <c r="Y40">
-        <v>0.785</v>
+        <v>0.762</v>
       </c>
       <c r="Z40">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA40">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="AB40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AC40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="s">
         <v>142</v>
@@ -4571,76 +4562,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>838</v>
+        <v>78</v>
       </c>
       <c r="H42">
-        <v>25975</v>
+        <v>2644</v>
       </c>
       <c r="I42">
-        <v>5116</v>
+        <v>572</v>
       </c>
       <c r="J42">
-        <v>9701</v>
+        <v>1119</v>
       </c>
       <c r="K42">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4057</v>
+        <v>495</v>
       </c>
       <c r="N42">
-        <v>5862</v>
+        <v>634</v>
       </c>
       <c r="O42">
-        <v>2184</v>
+        <v>263</v>
       </c>
       <c r="P42">
-        <v>7137</v>
+        <v>805</v>
       </c>
       <c r="Q42">
-        <v>946</v>
+        <v>76</v>
       </c>
       <c r="R42">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="S42">
-        <v>2356</v>
+        <v>271</v>
       </c>
       <c r="T42">
-        <v>2209</v>
+        <v>236</v>
       </c>
       <c r="U42">
-        <v>2810</v>
+        <v>286</v>
       </c>
       <c r="V42">
-        <v>14311</v>
+        <v>1639</v>
       </c>
       <c r="W42">
-        <v>0.527</v>
+        <v>0.511</v>
       </c>
       <c r="X42">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.6919999999999999</v>
+        <v>0.781</v>
       </c>
       <c r="Z42">
-        <v>31</v>
+        <v>33.9</v>
       </c>
       <c r="AA42">
-        <v>17.1</v>
+        <v>21</v>
       </c>
       <c r="AB42">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="AC42">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="s">
         <v>142</v>
@@ -4663,76 +4654,76 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>659</v>
+        <v>48</v>
       </c>
       <c r="H43">
-        <v>12103</v>
+        <v>495</v>
       </c>
       <c r="I43">
-        <v>2181</v>
+        <v>108</v>
       </c>
       <c r="J43">
-        <v>5070</v>
+        <v>260</v>
       </c>
       <c r="K43">
-        <v>753</v>
+        <v>21</v>
       </c>
       <c r="L43">
-        <v>1942</v>
+        <v>70</v>
       </c>
       <c r="M43">
-        <v>828</v>
+        <v>35</v>
       </c>
       <c r="N43">
-        <v>999</v>
+        <v>40</v>
       </c>
       <c r="O43">
-        <v>505</v>
+        <v>40</v>
       </c>
       <c r="P43">
-        <v>1649</v>
+        <v>83</v>
       </c>
       <c r="Q43">
-        <v>508</v>
+        <v>11</v>
       </c>
       <c r="R43">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="S43">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="T43">
-        <v>603</v>
+        <v>31</v>
       </c>
       <c r="U43">
-        <v>1099</v>
+        <v>59</v>
       </c>
       <c r="V43">
-        <v>5943</v>
+        <v>272</v>
       </c>
       <c r="W43">
-        <v>0.43</v>
+        <v>0.415</v>
       </c>
       <c r="X43">
-        <v>0.388</v>
+        <v>0.3</v>
       </c>
       <c r="Y43">
-        <v>0.829</v>
+        <v>0.875</v>
       </c>
       <c r="Z43">
-        <v>18.4</v>
+        <v>10.3</v>
       </c>
       <c r="AA43">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AB43">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC43">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD43" t="s">
         <v>142</v>
@@ -4847,76 +4838,76 @@
         <v>20</v>
       </c>
       <c r="F45">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>1207</v>
+        <v>81</v>
       </c>
       <c r="H45">
-        <v>41918</v>
+        <v>3071</v>
       </c>
       <c r="I45">
-        <v>11330</v>
+        <v>733</v>
       </c>
       <c r="J45">
-        <v>19457</v>
+        <v>1304</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>5935</v>
+        <v>427</v>
       </c>
       <c r="N45">
-        <v>11252</v>
+        <v>721</v>
       </c>
       <c r="O45">
-        <v>4209</v>
+        <v>342</v>
       </c>
       <c r="P45">
-        <v>13099</v>
+        <v>1122</v>
       </c>
       <c r="Q45">
-        <v>3026</v>
+        <v>152</v>
       </c>
       <c r="R45">
-        <v>739</v>
+        <v>60</v>
       </c>
       <c r="S45">
-        <v>2732</v>
+        <v>286</v>
       </c>
       <c r="T45">
-        <v>3310</v>
+        <v>307</v>
       </c>
       <c r="U45">
-        <v>4146</v>
+        <v>321</v>
       </c>
       <c r="V45">
-        <v>28596</v>
+        <v>1893</v>
       </c>
       <c r="W45">
-        <v>0.582</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X45">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0.527</v>
+        <v>0.592</v>
       </c>
       <c r="Z45">
-        <v>34.7</v>
+        <v>37.9</v>
       </c>
       <c r="AA45">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="AB45">
-        <v>10.9</v>
+        <v>13.9</v>
       </c>
       <c r="AC45">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD45" t="s">
         <v>142</v>
@@ -5031,76 +5022,76 @@
         <v>23</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>7275</v>
+        <v>990</v>
       </c>
       <c r="I47">
-        <v>880</v>
+        <v>152</v>
       </c>
       <c r="J47">
-        <v>2134</v>
+        <v>323</v>
       </c>
       <c r="K47">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>385</v>
+        <v>59</v>
       </c>
       <c r="N47">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="O47">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="P47">
-        <v>654</v>
+        <v>106</v>
       </c>
       <c r="Q47">
-        <v>1038</v>
+        <v>157</v>
       </c>
       <c r="R47">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="S47">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="T47">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="U47">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="V47">
-        <v>2253</v>
+        <v>366</v>
       </c>
       <c r="W47">
-        <v>0.412</v>
+        <v>0.471</v>
       </c>
       <c r="X47">
-        <v>0.319</v>
+        <v>0.231</v>
       </c>
       <c r="Y47">
-        <v>0.8159999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="Z47">
-        <v>14.6</v>
+        <v>22</v>
       </c>
       <c r="AA47">
-        <v>4.5</v>
+        <v>8.1</v>
       </c>
       <c r="AB47">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC47">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AD47" t="s">
         <v>142</v>
@@ -5123,76 +5114,76 @@
         <v>23</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>827</v>
+        <v>77</v>
       </c>
       <c r="H48">
-        <v>20464</v>
+        <v>1656</v>
       </c>
       <c r="I48">
-        <v>3101</v>
+        <v>297</v>
       </c>
       <c r="J48">
-        <v>7255</v>
+        <v>634</v>
       </c>
       <c r="K48">
-        <v>940</v>
+        <v>46</v>
       </c>
       <c r="L48">
-        <v>2445</v>
+        <v>118</v>
       </c>
       <c r="M48">
-        <v>875</v>
+        <v>162</v>
       </c>
       <c r="N48">
-        <v>1095</v>
+        <v>206</v>
       </c>
       <c r="O48">
-        <v>564</v>
+        <v>64</v>
       </c>
       <c r="P48">
-        <v>2136</v>
+        <v>179</v>
       </c>
       <c r="Q48">
-        <v>1956</v>
+        <v>166</v>
       </c>
       <c r="R48">
-        <v>775</v>
+        <v>60</v>
       </c>
       <c r="S48">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="T48">
-        <v>1019</v>
+        <v>123</v>
       </c>
       <c r="U48">
-        <v>1670</v>
+        <v>193</v>
       </c>
       <c r="V48">
-        <v>8017</v>
+        <v>802</v>
       </c>
       <c r="W48">
-        <v>0.427</v>
+        <v>0.468</v>
       </c>
       <c r="X48">
-        <v>0.384</v>
+        <v>0.39</v>
       </c>
       <c r="Y48">
-        <v>0.799</v>
+        <v>0.786</v>
       </c>
       <c r="Z48">
-        <v>24.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA48">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="AB48">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AC48">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD48" t="s">
         <v>142</v>
@@ -5215,76 +5206,76 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="H49">
-        <v>7007</v>
+        <v>859</v>
       </c>
       <c r="I49">
-        <v>818</v>
+        <v>100</v>
       </c>
       <c r="J49">
-        <v>1918</v>
+        <v>279</v>
       </c>
       <c r="K49">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="L49">
-        <v>938</v>
+        <v>48</v>
       </c>
       <c r="M49">
-        <v>482</v>
+        <v>54</v>
       </c>
       <c r="N49">
-        <v>585</v>
+        <v>68</v>
       </c>
       <c r="O49">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="P49">
-        <v>684</v>
+        <v>103</v>
       </c>
       <c r="Q49">
-        <v>1236</v>
+        <v>154</v>
       </c>
       <c r="R49">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="S49">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>626</v>
+        <v>85</v>
       </c>
       <c r="U49">
-        <v>759</v>
+        <v>90</v>
       </c>
       <c r="V49">
-        <v>2481</v>
+        <v>262</v>
       </c>
       <c r="W49">
-        <v>0.426</v>
+        <v>0.358</v>
       </c>
       <c r="X49">
-        <v>0.387</v>
+        <v>0.167</v>
       </c>
       <c r="Y49">
-        <v>0.824</v>
+        <v>0.794</v>
       </c>
       <c r="Z49">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
       <c r="AA49">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="AB49">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC49">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AD49" t="s">
         <v>142</v>
@@ -5396,76 +5387,76 @@
         <v>23</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>749</v>
+        <v>72</v>
       </c>
       <c r="H51">
-        <v>13560</v>
+        <v>2087</v>
       </c>
       <c r="I51">
-        <v>1710</v>
+        <v>368</v>
       </c>
       <c r="J51">
-        <v>3725</v>
+        <v>747</v>
       </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>2</v>
       </c>
-      <c r="L51">
-        <v>22</v>
-      </c>
       <c r="M51">
-        <v>1254</v>
+        <v>234</v>
       </c>
       <c r="N51">
-        <v>1795</v>
+        <v>389</v>
       </c>
       <c r="O51">
-        <v>943</v>
+        <v>196</v>
       </c>
       <c r="P51">
-        <v>2877</v>
+        <v>536</v>
       </c>
       <c r="Q51">
-        <v>631</v>
+        <v>95</v>
       </c>
       <c r="R51">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="S51">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="T51">
-        <v>804</v>
+        <v>160</v>
       </c>
       <c r="U51">
-        <v>1657</v>
+        <v>204</v>
       </c>
       <c r="V51">
-        <v>4676</v>
+        <v>970</v>
       </c>
       <c r="W51">
-        <v>0.459</v>
+        <v>0.493</v>
       </c>
       <c r="X51">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.699</v>
+        <v>0.602</v>
       </c>
       <c r="Z51">
-        <v>18.1</v>
+        <v>29</v>
       </c>
       <c r="AA51">
-        <v>6.2</v>
+        <v>13.5</v>
       </c>
       <c r="AB51">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC51">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD51" t="s">
         <v>142</v>
@@ -5488,76 +5479,76 @@
         <v>22</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>493</v>
+        <v>58</v>
       </c>
       <c r="H52">
-        <v>11720</v>
+        <v>672</v>
       </c>
       <c r="I52">
-        <v>1865</v>
+        <v>136</v>
       </c>
       <c r="J52">
-        <v>4375</v>
+        <v>319</v>
       </c>
       <c r="K52">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="L52">
-        <v>541</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>1067</v>
+        <v>51</v>
       </c>
       <c r="N52">
-        <v>1319</v>
+        <v>74</v>
       </c>
       <c r="O52">
-        <v>505</v>
+        <v>60</v>
       </c>
       <c r="P52">
-        <v>1585</v>
+        <v>112</v>
       </c>
       <c r="Q52">
-        <v>816</v>
+        <v>47</v>
       </c>
       <c r="R52">
-        <v>518</v>
+        <v>36</v>
       </c>
       <c r="S52">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="T52">
-        <v>681</v>
+        <v>58</v>
       </c>
       <c r="U52">
-        <v>1087</v>
+        <v>74</v>
       </c>
       <c r="V52">
-        <v>4955</v>
+        <v>330</v>
       </c>
       <c r="W52">
         <v>0.426</v>
       </c>
       <c r="X52">
-        <v>0.292</v>
+        <v>0.226</v>
       </c>
       <c r="Y52">
-        <v>0.8090000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z52">
-        <v>23.8</v>
+        <v>11.6</v>
       </c>
       <c r="AA52">
-        <v>10.1</v>
+        <v>5.7</v>
       </c>
       <c r="AB52">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="AC52">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD52" t="s">
         <v>142</v>
@@ -5580,76 +5571,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="H53">
-        <v>3956</v>
+        <v>1266</v>
       </c>
       <c r="I53">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="J53">
-        <v>976</v>
+        <v>289</v>
       </c>
       <c r="K53">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="N53">
-        <v>324</v>
+        <v>120</v>
       </c>
       <c r="O53">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="P53">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="Q53">
-        <v>627</v>
+        <v>196</v>
       </c>
       <c r="R53">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="S53">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="T53">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="U53">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="V53">
-        <v>1140</v>
+        <v>347</v>
       </c>
       <c r="W53">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="X53">
-        <v>0.366</v>
+        <v>0.143</v>
       </c>
       <c r="Y53">
-        <v>0.713</v>
+        <v>0.792</v>
       </c>
       <c r="Z53">
-        <v>17.7</v>
+        <v>15.8</v>
       </c>
       <c r="AA53">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="AB53">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC53">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD53" t="s">
         <v>142</v>
@@ -5672,19 +5663,19 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="H54">
-        <v>384</v>
+        <v>68</v>
       </c>
       <c r="I54">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J54">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5693,55 +5684,55 @@
         <v>1</v>
       </c>
       <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>14</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
         <v>21</v>
       </c>
-      <c r="N54">
-        <v>52</v>
-      </c>
-      <c r="O54">
-        <v>55</v>
-      </c>
-      <c r="P54">
-        <v>120</v>
-      </c>
       <c r="Q54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="U54">
         <v>16</v>
       </c>
-      <c r="S54">
-        <v>7</v>
-      </c>
-      <c r="T54">
-        <v>16</v>
-      </c>
-      <c r="U54">
-        <v>63</v>
-      </c>
       <c r="V54">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="W54">
-        <v>0.394</v>
+        <v>0.37</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.404</v>
+        <v>0.214</v>
       </c>
       <c r="Z54">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="AA54">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC54">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="s">
         <v>142</v>
@@ -5764,19 +5755,19 @@
         <v>28</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H55">
-        <v>771</v>
+        <v>422</v>
       </c>
       <c r="I55">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="J55">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5785,55 +5776,55 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N55">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="O55">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="P55">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R55">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S55">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T55">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="U55">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="V55">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="W55">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.733</v>
+        <v>0.759</v>
       </c>
       <c r="Z55">
-        <v>16.1</v>
+        <v>21.1</v>
       </c>
       <c r="AA55">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AB55">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD55" t="s">
         <v>142</v>
@@ -5856,76 +5847,73 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="H56">
-        <v>2641</v>
+        <v>280</v>
       </c>
       <c r="I56">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="J56">
-        <v>754</v>
+        <v>82</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="N56">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="O56">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="P56">
-        <v>555</v>
+        <v>62</v>
       </c>
       <c r="Q56">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="R56">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="S56">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="T56">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="U56">
-        <v>336</v>
+        <v>54</v>
       </c>
       <c r="V56">
-        <v>923</v>
+        <v>104</v>
       </c>
       <c r="W56">
-        <v>0.516</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
+        <v>0.537</v>
       </c>
       <c r="Y56">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="Z56">
-        <v>16.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA56">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB56">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC56">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD56" t="s">
         <v>142</v>
@@ -5948,76 +5936,76 @@
         <v>22</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>913</v>
+        <v>77</v>
       </c>
       <c r="H57">
-        <v>35270</v>
+        <v>2741</v>
       </c>
       <c r="I57">
-        <v>6076</v>
+        <v>449</v>
       </c>
       <c r="J57">
-        <v>14294</v>
+        <v>968</v>
       </c>
       <c r="K57">
-        <v>1104</v>
+        <v>73</v>
       </c>
       <c r="L57">
-        <v>3272</v>
+        <v>198</v>
       </c>
       <c r="M57">
-        <v>3456</v>
+        <v>211</v>
       </c>
       <c r="N57">
-        <v>4298</v>
+        <v>283</v>
       </c>
       <c r="O57">
-        <v>770</v>
+        <v>79</v>
       </c>
       <c r="P57">
-        <v>3724</v>
+        <v>271</v>
       </c>
       <c r="Q57">
-        <v>3664</v>
+        <v>295</v>
       </c>
       <c r="R57">
-        <v>1294</v>
+        <v>126</v>
       </c>
       <c r="S57">
-        <v>399</v>
+        <v>52</v>
       </c>
       <c r="T57">
-        <v>2450</v>
+        <v>203</v>
       </c>
       <c r="U57">
-        <v>1689</v>
+        <v>166</v>
       </c>
       <c r="V57">
-        <v>16712</v>
+        <v>1182</v>
       </c>
       <c r="W57">
-        <v>0.425</v>
+        <v>0.464</v>
       </c>
       <c r="X57">
-        <v>0.337</v>
+        <v>0.369</v>
       </c>
       <c r="Y57">
-        <v>0.804</v>
+        <v>0.746</v>
       </c>
       <c r="Z57">
-        <v>38.6</v>
+        <v>35.6</v>
       </c>
       <c r="AA57">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
       <c r="AB57">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AC57">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD57" t="s">
         <v>142</v>
@@ -6126,76 +6114,76 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>586</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>16417</v>
+        <v>865</v>
       </c>
       <c r="I59">
-        <v>2021</v>
+        <v>124</v>
       </c>
       <c r="J59">
-        <v>4767</v>
+        <v>278</v>
       </c>
       <c r="K59">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>931</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>1598</v>
+        <v>99</v>
       </c>
       <c r="N59">
-        <v>1900</v>
+        <v>119</v>
       </c>
       <c r="O59">
-        <v>605</v>
+        <v>39</v>
       </c>
       <c r="P59">
-        <v>1983</v>
+        <v>124</v>
       </c>
       <c r="Q59">
-        <v>1178</v>
+        <v>49</v>
       </c>
       <c r="R59">
-        <v>594</v>
+        <v>24</v>
       </c>
       <c r="S59">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="T59">
-        <v>776</v>
+        <v>44</v>
       </c>
       <c r="U59">
-        <v>1092</v>
+        <v>82</v>
       </c>
       <c r="V59">
-        <v>5946</v>
+        <v>347</v>
       </c>
       <c r="W59">
-        <v>0.424</v>
+        <v>0.446</v>
       </c>
       <c r="X59">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.841</v>
+        <v>0.832</v>
       </c>
       <c r="Z59">
-        <v>28</v>
+        <v>22.2</v>
       </c>
       <c r="AA59">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="AB59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC59">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AD59" t="s">
         <v>142</v>
@@ -6310,76 +6298,76 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>915</v>
+        <v>82</v>
       </c>
       <c r="H61">
-        <v>27736</v>
+        <v>2654</v>
       </c>
       <c r="I61">
-        <v>4025</v>
+        <v>494</v>
       </c>
       <c r="J61">
-        <v>8537</v>
+        <v>1053</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2423</v>
+        <v>291</v>
       </c>
       <c r="N61">
-        <v>3261</v>
+        <v>408</v>
       </c>
       <c r="O61">
-        <v>2126</v>
+        <v>179</v>
       </c>
       <c r="P61">
-        <v>6846</v>
+        <v>589</v>
       </c>
       <c r="Q61">
-        <v>1346</v>
+        <v>147</v>
       </c>
       <c r="R61">
-        <v>880</v>
+        <v>85</v>
       </c>
       <c r="S61">
-        <v>794</v>
+        <v>67</v>
       </c>
       <c r="T61">
-        <v>1430</v>
+        <v>176</v>
       </c>
       <c r="U61">
-        <v>2028</v>
+        <v>188</v>
       </c>
       <c r="V61">
-        <v>10483</v>
+        <v>1280</v>
       </c>
       <c r="W61">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="X61">
-        <v>0.196</v>
+        <v>0.25</v>
       </c>
       <c r="Y61">
-        <v>0.743</v>
+        <v>0.713</v>
       </c>
       <c r="Z61">
-        <v>30.3</v>
+        <v>32.4</v>
       </c>
       <c r="AA61">
-        <v>11.5</v>
+        <v>15.6</v>
       </c>
       <c r="AB61">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC61">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD61" t="s">
         <v>142</v>
@@ -6494,19 +6482,19 @@
         <v>22</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H63">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="I63">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J63">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6515,55 +6503,55 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O63">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P63">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Q63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R63">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T63">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U63">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="V63">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="W63">
-        <v>0.378</v>
+        <v>0.305</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.574</v>
+        <v>0.548</v>
       </c>
       <c r="Z63">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA63">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB63">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC63">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD63" t="s">
         <v>142</v>
@@ -6586,70 +6574,70 @@
         <v>22</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="I64">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J64">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>19</v>
+      </c>
+      <c r="P64">
+        <v>31</v>
+      </c>
+      <c r="Q64">
+        <v>23</v>
+      </c>
+      <c r="R64">
         <v>4</v>
-      </c>
-      <c r="M64">
-        <v>19</v>
-      </c>
-      <c r="N64">
-        <v>23</v>
-      </c>
-      <c r="O64">
-        <v>20</v>
-      </c>
-      <c r="P64">
-        <v>37</v>
-      </c>
-      <c r="Q64">
-        <v>29</v>
-      </c>
-      <c r="R64">
-        <v>6</v>
       </c>
       <c r="S64">
         <v>2</v>
       </c>
       <c r="T64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U64">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V64">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="W64">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="X64">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="Y64">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z64">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AA64">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB64">
         <v>0.9</v>
@@ -6678,76 +6666,73 @@
         <v>23</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>27</v>
+      </c>
+      <c r="H65">
+        <v>179</v>
+      </c>
+      <c r="I65">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
         <v>7</v>
       </c>
-      <c r="G65">
-        <v>253</v>
-      </c>
-      <c r="H65">
-        <v>5535</v>
-      </c>
-      <c r="I65">
-        <v>338</v>
-      </c>
-      <c r="J65">
-        <v>721</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="O65">
+        <v>17</v>
+      </c>
+      <c r="P65">
+        <v>55</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65">
+        <v>17</v>
+      </c>
+      <c r="T65">
+        <v>8</v>
+      </c>
+      <c r="U65">
+        <v>29</v>
+      </c>
+      <c r="V65">
+        <v>36</v>
+      </c>
+      <c r="W65">
+        <v>0.472</v>
+      </c>
+      <c r="Y65">
+        <v>0.286</v>
+      </c>
+      <c r="Z65">
+        <v>6.6</v>
+      </c>
+      <c r="AA65">
+        <v>1.3</v>
+      </c>
+      <c r="AB65">
         <v>2</v>
       </c>
-      <c r="M65">
-        <v>81</v>
-      </c>
-      <c r="N65">
-        <v>215</v>
-      </c>
-      <c r="O65">
-        <v>693</v>
-      </c>
-      <c r="P65">
-        <v>1603</v>
-      </c>
-      <c r="Q65">
-        <v>247</v>
-      </c>
-      <c r="R65">
-        <v>134</v>
-      </c>
-      <c r="S65">
-        <v>350</v>
-      </c>
-      <c r="T65">
-        <v>236</v>
-      </c>
-      <c r="U65">
-        <v>732</v>
-      </c>
-      <c r="V65">
-        <v>757</v>
-      </c>
-      <c r="W65">
-        <v>0.469</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0.377</v>
-      </c>
-      <c r="Z65">
-        <v>21.9</v>
-      </c>
-      <c r="AA65">
-        <v>3</v>
-      </c>
-      <c r="AB65">
-        <v>6.3</v>
-      </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AD65" t="s">
         <v>142</v>
@@ -6770,76 +6755,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>708</v>
+        <v>59</v>
       </c>
       <c r="H66">
-        <v>18818</v>
+        <v>1673</v>
       </c>
       <c r="I66">
-        <v>2978</v>
+        <v>358</v>
       </c>
       <c r="J66">
-        <v>7013</v>
+        <v>823</v>
       </c>
       <c r="K66">
-        <v>976</v>
+        <v>61</v>
       </c>
       <c r="L66">
-        <v>2575</v>
+        <v>191</v>
       </c>
       <c r="M66">
-        <v>1453</v>
+        <v>224</v>
       </c>
       <c r="N66">
-        <v>1956</v>
+        <v>302</v>
       </c>
       <c r="O66">
-        <v>764</v>
+        <v>115</v>
       </c>
       <c r="P66">
-        <v>2794</v>
+        <v>265</v>
       </c>
       <c r="Q66">
-        <v>1637</v>
+        <v>178</v>
       </c>
       <c r="R66">
-        <v>658</v>
+        <v>66</v>
       </c>
       <c r="S66">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="T66">
-        <v>1321</v>
+        <v>179</v>
       </c>
       <c r="U66">
-        <v>2046</v>
+        <v>209</v>
       </c>
       <c r="V66">
-        <v>8385</v>
+        <v>1001</v>
       </c>
       <c r="W66">
-        <v>0.425</v>
+        <v>0.435</v>
       </c>
       <c r="X66">
-        <v>0.379</v>
+        <v>0.319</v>
       </c>
       <c r="Y66">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="Z66">
-        <v>26.6</v>
+        <v>28.4</v>
       </c>
       <c r="AA66">
-        <v>11.8</v>
+        <v>17</v>
       </c>
       <c r="AB66">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AC66">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AD66" t="s">
         <v>142</v>
@@ -6862,76 +6847,76 @@
         <v>22</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>1093</v>
+        <v>174</v>
       </c>
       <c r="I67">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="J67">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="K67">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N67">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="O67">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="Q67">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="R67">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="U67">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="V67">
-        <v>356</v>
+        <v>68</v>
       </c>
       <c r="W67">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="X67">
-        <v>0.305</v>
+        <v>0.214</v>
       </c>
       <c r="Y67">
-        <v>0.6830000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="Z67">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="AA67">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AB67">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AC67">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AD67" t="s">
         <v>142</v>
